--- a/biology/Médecine/Léon_Langeron/Léon_Langeron.xlsx
+++ b/biology/Médecine/Léon_Langeron/Léon_Langeron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Langeron</t>
+          <t>Léon_Langeron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léon Langeron est un professeur de médecine français, né le 5 décembre 1888 à Montceau-les-Mines (Saône-et-Loire) et mort le 29 juin 1963 à Lille (Nord)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Langeron est un professeur de médecine français, né le 5 décembre 1888 à Montceau-les-Mines (Saône-et-Loire) et mort le 29 juin 1963 à Lille (Nord).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Langeron</t>
+          <t>Léon_Langeron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Langeron est né le 5 décembre 1888 à Montceau-les-Mines en Saône-et-Loire et il a fait ses études de médecine à l'Université de Lyon.
 Médecin des hôpitaux de Lyon en 1926, et prêt à passer l'agrégation il est recruté par la Faculté libre de médecine de Lille pour occuper la chaire de clinique médicale. En mars 1927, âgé de 39 ans, il prend donc en charge le service de médecine de l'hôpital de la charité pendant 35 ans. C'est dans cette fonction et dans ce service que le Pr Langeron donna toute sa mesure et montra ses qualités d'enseignant et de chercheur. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Langeron</t>
+          <t>Léon_Langeron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Précis d'endocrinologie clinique[2] 2 éditions en 1944 et 1949
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Précis d'endocrinologie clinique 2 éditions en 1944 et 1949
 Insuffisance cardiaque en 1951
 Les troubles vaso-moteurs des extrémités
 Plus de 1 400 articles signés ou cosignés.
